--- a/Advanced/DepartmentReport/result.xlsx
+++ b/Advanced/DepartmentReport/result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TemplaterExamples\Advanced\DepartmentReport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{209B8024-5D7F-475D-8999-A20D04A36078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="1530" windowWidth="17295" windowHeight="10695" activeTab="4"/>
+    <workbookView xWindow="29550" yWindow="750" windowWidth="24705" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -18,27 +24,35 @@
     <definedName name="team">DEV!$A$4:$P$19</definedName>
     <definedName name="temp_range_0">SALE!$C$6:$N$11</definedName>
     <definedName name="temp_range_1">SALE!$A$4:$P$15</definedName>
-    <definedName name="temp_range_10">DEV!$C$37:$N$37</definedName>
+    <definedName name="temp_range_10">DEV!$C$35:$N$37</definedName>
     <definedName name="temp_range_11">DEV!$C$38:$N$39</definedName>
     <definedName name="temp_range_12">SALE!$A$16:$P$23</definedName>
     <definedName name="temp_range_13">SALE!$C$18:$N$20</definedName>
     <definedName name="temp_range_14">SALE!$C$12:$N$13</definedName>
     <definedName name="temp_range_15">SALE!$C$21:$N$21</definedName>
-    <definedName name="temp_range_16">QA!$C$20:$N$28</definedName>
-    <definedName name="temp_range_17">QA!$C$18:$N$19</definedName>
-    <definedName name="temp_range_2">QA!$C$6:$N$17</definedName>
+    <definedName name="temp_range_16">QA!$C$15:$N$26</definedName>
+    <definedName name="temp_range_17">QA!$C$27:$N$28</definedName>
+    <definedName name="temp_range_2">QA!$C$6:$N$14</definedName>
     <definedName name="temp_range_3">QA!$A$4:$P$30</definedName>
     <definedName name="temp_range_4">DEV!$A$20:$P$41</definedName>
-    <definedName name="temp_range_5">DEV!$C$22:$N$29</definedName>
+    <definedName name="temp_range_5">DEV!$C$22:$N$23</definedName>
     <definedName name="temp_range_6">DEV!$C$14:$N$17</definedName>
-    <definedName name="temp_range_7">DEV!$C$35:$N$36</definedName>
-    <definedName name="temp_range_8">DEV!$C$30:$N$32</definedName>
-    <definedName name="temp_range_9">DEV!$C$33:$N$34</definedName>
+    <definedName name="temp_range_7">DEV!$C$27:$N$34</definedName>
+    <definedName name="temp_range_8">DEV!$C$24:$N$24</definedName>
+    <definedName name="temp_range_9">DEV!$C$25:$N$26</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -93,6 +107,9 @@
     <t>Sum of Days</t>
   </si>
   <si>
+    <t>Sweat shop ltd.</t>
+  </si>
+  <si>
     <t>Development</t>
   </si>
   <si>
@@ -397,20 +414,17 @@
   </si>
   <si>
     <t>Lead: Mickey</t>
-  </si>
-  <si>
-    <t>Sweat shop ltd.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00&quot; md&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,36 +760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -813,6 +797,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -930,26 +944,52 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="hr-HR"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[result.xlsx]Summary!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -959,8 +999,19 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
-      <c:perspective val="30"/>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -1040,18 +1091,34 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78CB-4884-A96F-564D6D8FEEA6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1074,7 +1141,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1093,7 +1166,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="43336.977383680554" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="65">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="44126.430890856478" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="65" xr:uid="{00000000-000A-0000-FFFF-FFFF0E000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="total[#All]"/>
   </cacheSource>
@@ -1129,11 +1202,16 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="300"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="65">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="65">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1658,7 +1736,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B8:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1737,19 +1815,24 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="total" displayName="total" ref="A1:F66" totalsRowShown="0">
-  <autoFilter ref="A1:F66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="total" displayName="total" ref="A1:F66" totalsRowShown="0">
+  <autoFilter ref="A1:F66" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Department"/>
-    <tableColumn id="2" name="Team"/>
-    <tableColumn id="3" name="Project"/>
-    <tableColumn id="4" name="Epic"/>
-    <tableColumn id="5" name="Task"/>
-    <tableColumn id="6" name="Days"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Team"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Project"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Epic"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Task"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Days"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1798,7 +1881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1830,9 +1913,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1864,6 +1965,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2039,12 +2158,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F5A3AF-670B-4DBF-B949-49FDFE80F314}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -2052,7 +2173,7 @@
     <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2072,1301 +2193,1301 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>4.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F36">
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F41">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F43">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F44">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F45">
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F48">
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F54">
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F55">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F57">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F60">
         <v>0.25</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F64">
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -3381,14 +3502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB80E825-2D31-499E-891E-3C3A144F34FD}">
   <dimension ref="A1:ALZ40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="10" customWidth="1"/>
@@ -3409,51 +3530,51 @@
     <col min="17" max="1014" width="7.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+    <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
       <c r="ALZ1" s="2"/>
     </row>
-    <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
       <c r="ALZ2" s="4"/>
     </row>
-    <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1">
+    <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3471,383 +3592,383 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-    </row>
-    <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39" t="s">
+      <c r="N5" s="28"/>
+      <c r="O5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42" t="s">
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34">
         <f>SUM(K6:K13)</f>
         <v>234.5</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25">
+      <c r="F6" s="34"/>
+      <c r="G6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38">
         <v>2</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="29">
+      <c r="J6" s="39"/>
+      <c r="K6" s="42">
         <v>0.5</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31">
+      <c r="L6" s="43"/>
+      <c r="M6" s="44">
         <f>SUM(K6:K13)/SUM(I6:I13)</f>
         <v>1.83203125</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31">
+      <c r="N6" s="44"/>
+      <c r="O6" s="44">
         <f>SUM(K6:K17)/SUM(I6:I17)</f>
         <v>1.7052980132450331</v>
       </c>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="7" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25">
+      <c r="P6" s="44"/>
+    </row>
+    <row r="7" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38">
         <v>7</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="29">
+      <c r="J7" s="39"/>
+      <c r="K7" s="42">
         <v>3.5</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-    </row>
-    <row r="8" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25">
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38">
         <v>12</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="29">
+      <c r="J8" s="39"/>
+      <c r="K8" s="42">
         <v>15</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-    </row>
-    <row r="9" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25">
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38">
         <v>1</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="29">
+      <c r="J9" s="39"/>
+      <c r="K9" s="42">
         <v>0.5</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-    </row>
-    <row r="10" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+    </row>
+    <row r="10" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38">
         <v>20</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="29">
+      <c r="J10" s="39"/>
+      <c r="K10" s="42">
         <v>35</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-    </row>
-    <row r="11" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25">
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+    </row>
+    <row r="11" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38">
         <v>70</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="29">
+      <c r="J11" s="39"/>
+      <c r="K11" s="42">
         <v>120</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-    </row>
-    <row r="12" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25">
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+    </row>
+    <row r="12" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38">
         <v>6</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="29">
+      <c r="J12" s="39"/>
+      <c r="K12" s="42">
         <v>0</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-    </row>
-    <row r="13" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25">
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+    </row>
+    <row r="13" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38">
         <v>10</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="29">
+      <c r="J13" s="39"/>
+      <c r="K13" s="42">
         <v>60</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-    </row>
-    <row r="14" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44">
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+    </row>
+    <row r="14" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34">
         <f>SUM(K14:K17)</f>
         <v>23</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25">
+      <c r="F14" s="34"/>
+      <c r="G14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38">
         <v>6</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="29">
+      <c r="J14" s="39"/>
+      <c r="K14" s="42">
         <v>6</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31">
+      <c r="L14" s="43"/>
+      <c r="M14" s="44">
         <f>SUM(K14:K17)/SUM(I14:I17)</f>
         <v>1</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-    </row>
-    <row r="15" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25">
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+    </row>
+    <row r="15" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38">
         <v>10</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="29">
+      <c r="J15" s="39"/>
+      <c r="K15" s="42">
         <v>12</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-    </row>
-    <row r="16" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25">
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+    </row>
+    <row r="16" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38">
         <v>2</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="29">
+      <c r="J16" s="39"/>
+      <c r="K16" s="42">
         <v>1</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-    </row>
-    <row r="17" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25">
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+    </row>
+    <row r="17" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38">
         <v>5</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="29">
+      <c r="J17" s="39"/>
+      <c r="K17" s="42">
         <v>4</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-    </row>
-    <row r="18" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+    </row>
+    <row r="18" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="32">
+      <c r="E18" s="22">
         <f>SUM(E6:E17)</f>
         <v>257.5</v>
       </c>
-      <c r="F18" s="32"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -3858,561 +3979,561 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
     </row>
-    <row r="20" spans="1:16" s="8" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A20" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-    </row>
-    <row r="21" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="27" t="s">
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="40"/>
+      <c r="E21" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="37" t="s">
+      <c r="H21" s="40"/>
+      <c r="I21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38" t="s">
+      <c r="J21" s="27"/>
+      <c r="K21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38" t="s">
+      <c r="L21" s="28"/>
+      <c r="M21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39" t="s">
+      <c r="N21" s="28"/>
+      <c r="O21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="39"/>
-    </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44">
-        <f>SUM(K22:K29)</f>
-        <v>414.5</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25">
-        <v>4</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="29">
+      <c r="P21" s="29"/>
+    </row>
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34">
+        <f>SUM(K22:K23)</f>
+        <v>64.5</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38">
+        <v>40</v>
+      </c>
+      <c r="J22" s="39"/>
+      <c r="K22" s="42">
         <v>4.5</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31">
-        <f>SUM(K22:K29)/SUM(I22:I29)</f>
-        <v>2.0621890547263684</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31">
+      <c r="L22" s="43"/>
+      <c r="M22" s="44">
+        <f>SUM(K22:K23)/SUM(I22:I23)</f>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44">
         <f>SUM(K22:K39)/SUM(I22:I39)</f>
         <v>1.1227887617065557</v>
       </c>
-      <c r="P22" s="31"/>
-    </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="23" t="s">
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38">
+        <v>50</v>
+      </c>
+      <c r="J23" s="39"/>
+      <c r="K23" s="42">
+        <v>60</v>
+      </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+    </row>
+    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34">
+        <f>SUM(K24)</f>
+        <v>30</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38">
+        <v>25</v>
+      </c>
+      <c r="J24" s="39"/>
+      <c r="K24" s="42">
+        <v>30</v>
+      </c>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44">
+        <f>SUM(K24)/SUM(I24)</f>
+        <v>1.2</v>
+      </c>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+    </row>
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34">
+        <f>SUM(K25:K26)</f>
+        <v>190</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38">
+        <v>100</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="42">
+        <v>110</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44">
+        <f>SUM(K25:K26)/SUM(I25:I26)</f>
+        <v>0.95</v>
+      </c>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+    </row>
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38">
+        <v>100</v>
+      </c>
+      <c r="J26" s="39"/>
+      <c r="K26" s="42">
+        <v>80</v>
+      </c>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+    </row>
+    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34">
+        <f>SUM(K27:K34)</f>
+        <v>414.5</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25">
+      <c r="H27" s="37"/>
+      <c r="I27" s="38">
         <v>4</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="29">
+      <c r="J27" s="39"/>
+      <c r="K27" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44">
+        <f>SUM(K27:K34)/SUM(I27:I34)</f>
+        <v>2.0621890547263684</v>
+      </c>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+    </row>
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38">
         <v>4</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-    </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25">
+      <c r="J28" s="39"/>
+      <c r="K28" s="42">
+        <v>4</v>
+      </c>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+    </row>
+    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38">
         <v>2</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="29">
+      <c r="J29" s="39"/>
+      <c r="K29" s="42">
         <v>2</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-    </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25">
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+    </row>
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38">
         <v>1</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="29">
+      <c r="J30" s="39"/>
+      <c r="K30" s="42">
         <v>1</v>
       </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25">
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+    </row>
+    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38">
         <v>10</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="29">
+      <c r="J31" s="39"/>
+      <c r="K31" s="42">
         <v>8</v>
       </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-    </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25">
+      <c r="L31" s="43"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+    </row>
+    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38">
         <v>20</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="29">
+      <c r="J32" s="39"/>
+      <c r="K32" s="42">
         <v>15</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-    </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25">
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+    </row>
+    <row r="33" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="38">
         <v>60</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="29">
+      <c r="J33" s="39"/>
+      <c r="K33" s="42">
         <v>80</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-    </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25">
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+    </row>
+    <row r="34" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38">
         <v>100</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="29">
+      <c r="J34" s="39"/>
+      <c r="K34" s="42">
         <v>300</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-    </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44">
-        <f>SUM(K30:K32)</f>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+    </row>
+    <row r="35" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34">
+        <f>SUM(K35:K37)</f>
         <v>60</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25">
+      <c r="F35" s="34"/>
+      <c r="G35" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38">
         <v>25</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="29">
+      <c r="J35" s="39"/>
+      <c r="K35" s="42">
         <v>30</v>
       </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31">
-        <f>SUM(K30:K32)/SUM(I30:I32)</f>
+      <c r="L35" s="43"/>
+      <c r="M35" s="44">
+        <f>SUM(K35:K37)/SUM(I35:I37)</f>
         <v>0.41379310344827586</v>
       </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-    </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25">
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+    </row>
+    <row r="36" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="38">
         <v>100</v>
       </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="29">
+      <c r="J36" s="39"/>
+      <c r="K36" s="42">
         <v>20</v>
       </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-    </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25">
+      <c r="L36" s="43"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+    </row>
+    <row r="37" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38">
         <v>20</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="29">
+      <c r="J37" s="39"/>
+      <c r="K37" s="42">
         <v>10</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-    </row>
-    <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44">
-        <f>SUM(K33:K34)</f>
+      <c r="L37" s="43"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+    </row>
+    <row r="38" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34">
+        <f>SUM(K38:K39)</f>
         <v>320</v>
       </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25">
+      <c r="F38" s="34"/>
+      <c r="G38" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38">
         <v>200</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="29">
+      <c r="J38" s="39"/>
+      <c r="K38" s="42">
         <v>300</v>
       </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31">
-        <f>SUM(K33:K34)/SUM(I33:I34)</f>
+      <c r="L38" s="43"/>
+      <c r="M38" s="44">
+        <f>SUM(K38:K39)/SUM(I38:I39)</f>
         <v>1.0666666666666667</v>
       </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25">
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+    </row>
+    <row r="39" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38">
         <v>100</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="29">
+      <c r="J39" s="39"/>
+      <c r="K39" s="42">
         <v>20</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-    </row>
-    <row r="35" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A35" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44">
-        <f>SUM(K35:K36)</f>
-        <v>64.5</v>
-      </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25">
-        <v>40</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="29">
-        <v>4.5</v>
-      </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="31">
-        <f>SUM(K35:K36)/SUM(I35:I36)</f>
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-    </row>
-    <row r="36" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25">
-        <v>50</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="29">
-        <v>60</v>
-      </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-    </row>
-    <row r="37" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A37" s="40"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44">
-        <f>SUM(K37)</f>
-        <v>30</v>
-      </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25">
-        <v>25</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="29">
-        <v>30</v>
-      </c>
-      <c r="L37" s="30"/>
-      <c r="M37" s="31">
-        <f>SUM(K37)/SUM(I37)</f>
-        <v>1.2</v>
-      </c>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-    </row>
-    <row r="38" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44">
-        <f>SUM(K38:K39)</f>
-        <v>190</v>
-      </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25">
-        <v>100</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="29">
-        <v>110</v>
-      </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="31">
-        <f>SUM(K38:K39)/SUM(I38:I39)</f>
-        <v>0.95</v>
-      </c>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-    </row>
-    <row r="39" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25">
-        <v>100</v>
-      </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="29">
-        <v>80</v>
-      </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-    </row>
-    <row r="40" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="L39" s="43"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+    </row>
+    <row r="40" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="32">
+      <c r="E40" s="22">
         <f>SUM(E22:E39)</f>
         <v>1079</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -4425,102 +4546,126 @@
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K36:L36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:F39"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:P20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A22:B34"/>
-    <mergeCell ref="C22:D29"/>
-    <mergeCell ref="E22:F29"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="A35:B39"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N32"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="E30:F32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E35:F37"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="O22:P39"/>
+    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C27:D34"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F34"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A27:B39"/>
+    <mergeCell ref="M27:N34"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G20:P20"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N29"/>
-    <mergeCell ref="O22:P39"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N13"/>
+    <mergeCell ref="O6:P17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C14:D17"/>
+    <mergeCell ref="E14:F17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N17"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:P2"/>
@@ -4533,41 +4678,17 @@
     <mergeCell ref="A6:B17"/>
     <mergeCell ref="C6:D13"/>
     <mergeCell ref="E6:F13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N17"/>
-    <mergeCell ref="C14:D17"/>
-    <mergeCell ref="E14:F17"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N13"/>
-    <mergeCell ref="O6:P17"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="I13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:P17">
@@ -4584,14 +4705,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:P39">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -4599,17 +4720,17 @@
   <conditionalFormatting sqref="K6:L17">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L39">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -4620,14 +4741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB222A3-BDA2-4939-831B-5D651E4690CC}">
   <dimension ref="A1:ALZ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="10" customWidth="1"/>
@@ -4648,51 +4769,51 @@
     <col min="17" max="1014" width="7.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+    <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
       <c r="ALZ1" s="2"/>
     </row>
-    <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
       <c r="ALZ2" s="4"/>
     </row>
-    <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1">
+    <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4710,287 +4831,287 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-    </row>
-    <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39" t="s">
+      <c r="N5" s="28"/>
+      <c r="O5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42" t="s">
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34">
         <f>SUM(K6:K11)</f>
         <v>26.5</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25">
+      <c r="F6" s="34"/>
+      <c r="G6" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38">
         <v>6</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="29">
+      <c r="J6" s="39"/>
+      <c r="K6" s="42">
         <v>4</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31">
+      <c r="L6" s="43"/>
+      <c r="M6" s="44">
         <f>SUM(K6:K11)/SUM(I6:I11)</f>
         <v>1.1041666666666667</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31">
+      <c r="N6" s="44"/>
+      <c r="O6" s="44">
         <f>SUM(K6:K13)/SUM(I6:I13)</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="7" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25">
+      <c r="P6" s="44"/>
+    </row>
+    <row r="7" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38">
         <v>3</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="29">
+      <c r="J7" s="39"/>
+      <c r="K7" s="42">
         <v>6</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-    </row>
-    <row r="8" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25">
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38">
         <v>8</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="29">
+      <c r="J8" s="39"/>
+      <c r="K8" s="42">
         <v>10</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-    </row>
-    <row r="9" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25">
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38">
         <v>1</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="29">
+      <c r="J9" s="39"/>
+      <c r="K9" s="42">
         <v>1</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-    </row>
-    <row r="10" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+    </row>
+    <row r="10" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38">
         <v>2</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="29">
+      <c r="J10" s="39"/>
+      <c r="K10" s="42">
         <v>1.5</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-    </row>
-    <row r="11" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25">
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+    </row>
+    <row r="11" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38">
         <v>4</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="29">
+      <c r="J11" s="39"/>
+      <c r="K11" s="42">
         <v>4</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-    </row>
-    <row r="12" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44">
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+    </row>
+    <row r="12" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34">
         <f>SUM(K12:K13)</f>
         <v>5</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25">
+      <c r="F12" s="34"/>
+      <c r="G12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38">
         <v>1</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="29">
+      <c r="J12" s="39"/>
+      <c r="K12" s="42">
         <v>1</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31">
+      <c r="L12" s="43"/>
+      <c r="M12" s="44">
         <f>SUM(K12:K13)/SUM(I12:I13)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-    </row>
-    <row r="13" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25">
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+    </row>
+    <row r="13" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38">
         <v>2</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="29">
+      <c r="J13" s="39"/>
+      <c r="K13" s="42">
         <v>4</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-    </row>
-    <row r="14" spans="1:1014" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+    </row>
+    <row r="14" spans="1:1014" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="32">
+      <c r="E14" s="22">
         <f>SUM(E6:E13)</f>
         <v>31.5</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -5001,193 +5122,193 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="16" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A16" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-    </row>
-    <row r="17" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="27" t="s">
+    <row r="16" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="40"/>
+      <c r="E17" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="27" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="37" t="s">
+      <c r="H17" s="40"/>
+      <c r="I17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38" t="s">
+      <c r="L17" s="28"/>
+      <c r="M17" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39" t="s">
+      <c r="N17" s="28"/>
+      <c r="O17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A18" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44">
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34">
         <f>SUM(K18:K20)</f>
         <v>80</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25">
+      <c r="F18" s="34"/>
+      <c r="G18" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38">
         <v>5</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="29">
+      <c r="J18" s="39"/>
+      <c r="K18" s="42">
         <v>10</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31">
+      <c r="L18" s="43"/>
+      <c r="M18" s="44">
         <f>SUM(K18:K20)/SUM(I18:I20)</f>
         <v>3.2</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31">
+      <c r="N18" s="44"/>
+      <c r="O18" s="44">
         <f>SUM(K18:K21)/SUM(I18:I21)</f>
         <v>2</v>
       </c>
-      <c r="P18" s="31"/>
-    </row>
-    <row r="19" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25">
+      <c r="P18" s="44"/>
+    </row>
+    <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38">
         <v>10</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="29">
+      <c r="J19" s="39"/>
+      <c r="K19" s="42">
         <v>20</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-    </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25">
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+    </row>
+    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38">
         <v>10</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="29">
+      <c r="J20" s="39"/>
+      <c r="K20" s="42">
         <v>50</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-    </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A21" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44">
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+    </row>
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34">
         <f>SUM(K21)</f>
         <v>10</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25">
+      <c r="F21" s="34"/>
+      <c r="G21" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38">
         <v>20</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="29">
+      <c r="J21" s="39"/>
+      <c r="K21" s="42">
         <v>10</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31">
+      <c r="L21" s="43"/>
+      <c r="M21" s="44">
         <f>SUM(K21)/SUM(I21)</f>
         <v>0.5</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-    </row>
-    <row r="22" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+    </row>
+    <row r="22" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="32">
+      <c r="E22" s="22">
         <f>SUM(E18:E21)</f>
         <v>90</v>
       </c>
-      <c r="F22" s="32"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -5200,52 +5321,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M18:N20"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N20"/>
     <mergeCell ref="O18:P21"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:D20"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G16:P16"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:P16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:D20"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N11"/>
+    <mergeCell ref="O6:P13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:P2"/>
@@ -5258,26 +5395,10 @@
     <mergeCell ref="A6:B13"/>
     <mergeCell ref="C6:D11"/>
     <mergeCell ref="E6:F11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N11"/>
-    <mergeCell ref="O6:P13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:P13">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
@@ -5293,14 +5414,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:P21">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -5308,17 +5429,17 @@
   <conditionalFormatting sqref="K6:L13">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L21">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -5329,14 +5450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED83467-B1F1-4A81-8AE5-6E58A32333D2}">
   <dimension ref="A1:ALZ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="10" customWidth="1"/>
@@ -5357,51 +5478,51 @@
     <col min="17" max="1014" width="7.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+    <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
       <c r="ALZ1" s="2"/>
     </row>
-    <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
       <c r="ALZ2" s="4"/>
     </row>
-    <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1">
+    <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5419,657 +5540,657 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-    </row>
-    <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39" t="s">
+      <c r="N5" s="28"/>
+      <c r="O5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44">
-        <f>SUM(K6:K17)</f>
-        <v>23</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31">
-        <f>SUM(K6:K17)/SUM(I6:I17)</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31">
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34">
+        <f>SUM(K6:K14)</f>
+        <v>11.75</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38">
+        <v>2</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="42">
+        <v>2</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44">
+        <f>SUM(K6:K14)/SUM(I6:I14)</f>
+        <v>0.94</v>
+      </c>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44">
         <f>SUM(K6:K28)/SUM(I6:I28)</f>
         <v>1.3496240601503759</v>
       </c>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="7" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="23" t="s">
+      <c r="P6" s="44"/>
+    </row>
+    <row r="7" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="42">
+        <v>1</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="42">
+        <v>1</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+    </row>
+    <row r="10" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38">
+        <v>2</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="42">
+        <v>2</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+    </row>
+    <row r="11" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="42">
+        <v>1</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+    </row>
+    <row r="12" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38">
+        <v>1</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+    </row>
+    <row r="13" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38">
+        <v>3</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="42">
+        <v>1</v>
+      </c>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+    </row>
+    <row r="14" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38">
+        <v>2</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="42">
+        <v>3</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+    </row>
+    <row r="15" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34">
+        <f>SUM(K15:K26)</f>
+        <v>23</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25">
+      <c r="H15" s="37"/>
+      <c r="I15" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44">
+        <f>SUM(K15:K26)/SUM(I15:I26)</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+    </row>
+    <row r="16" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38">
         <v>1</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="29">
+      <c r="J16" s="39"/>
+      <c r="K16" s="42">
         <v>1.5</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-    </row>
-    <row r="8" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25">
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+    </row>
+    <row r="17" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38">
         <v>0.5</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="29">
+      <c r="J17" s="39"/>
+      <c r="K17" s="42">
         <v>1</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-    </row>
-    <row r="9" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25">
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+    </row>
+    <row r="18" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38">
         <v>2</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="29">
+      <c r="J18" s="39"/>
+      <c r="K18" s="42">
         <v>1</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-    </row>
-    <row r="10" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+    </row>
+    <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38">
         <v>2</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="29">
+      <c r="J19" s="39"/>
+      <c r="K19" s="42">
         <v>1.5</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-    </row>
-    <row r="11" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25">
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+    </row>
+    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38">
         <v>2</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="29">
+      <c r="J20" s="39"/>
+      <c r="K20" s="42">
         <v>2</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-    </row>
-    <row r="12" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25">
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+    </row>
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38">
         <v>1</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="29">
+      <c r="J21" s="39"/>
+      <c r="K21" s="42">
         <v>3</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-    </row>
-    <row r="13" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25">
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+    </row>
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38">
         <v>3</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="29">
+      <c r="J22" s="39"/>
+      <c r="K22" s="42">
         <v>1</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-    </row>
-    <row r="14" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25">
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38">
         <v>4</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="29">
+      <c r="J23" s="39"/>
+      <c r="K23" s="42">
         <v>2</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-    </row>
-    <row r="15" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25">
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+    </row>
+    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38">
         <v>1</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="29">
+      <c r="J24" s="39"/>
+      <c r="K24" s="42">
         <v>1</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-    </row>
-    <row r="16" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25">
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+    </row>
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38">
         <v>2</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="29">
+      <c r="J25" s="39"/>
+      <c r="K25" s="42">
         <v>1.5</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-    </row>
-    <row r="17" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25">
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+    </row>
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38">
         <v>5</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="29">
+      <c r="J26" s="39"/>
+      <c r="K26" s="42">
         <v>7</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-    </row>
-    <row r="18" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44">
-        <f>SUM(K18:K19)</f>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+    </row>
+    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34">
+        <f>SUM(K27:K28)</f>
         <v>55</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25">
+      <c r="F27" s="34"/>
+      <c r="G27" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38">
         <v>10</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="29">
+      <c r="J27" s="39"/>
+      <c r="K27" s="42">
         <v>5</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31">
-        <f>SUM(K18:K19)/SUM(I18:I19)</f>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44">
+        <f>SUM(K27:K28)/SUM(I27:I28)</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-    </row>
-    <row r="19" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25">
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+    </row>
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38">
         <v>20</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="29">
+      <c r="J28" s="39"/>
+      <c r="K28" s="42">
         <v>50</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-    </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A20" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44">
-        <f>SUM(K20:K28)</f>
-        <v>11.75</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25">
-        <v>2</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="29">
-        <v>2</v>
-      </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31">
-        <f>SUM(K20:K28)/SUM(I20:I28)</f>
-        <v>0.94</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-    </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="29">
-        <v>1</v>
-      </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-    </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-    </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25">
-        <v>1</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="29">
-        <v>1</v>
-      </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-    </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25">
-        <v>2</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="29">
-        <v>2</v>
-      </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-    </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="29">
-        <v>1</v>
-      </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25">
-        <v>1</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-    </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25">
-        <v>3</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="29">
-        <v>1</v>
-      </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-    </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25">
-        <v>2</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="29">
-        <v>3</v>
-      </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-    </row>
-    <row r="29" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+    </row>
+    <row r="29" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="32">
+      <c r="E29" s="22">
         <f>SUM(E6:E28)</f>
         <v>89.75</v>
       </c>
-      <c r="F29" s="32"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -6082,69 +6203,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N14"/>
+    <mergeCell ref="O6:P28"/>
+    <mergeCell ref="M15:N26"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A15:B28"/>
+    <mergeCell ref="C15:D26"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:P2"/>
@@ -6154,29 +6291,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A6:B19"/>
-    <mergeCell ref="C6:D17"/>
-    <mergeCell ref="E6:F17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N28"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N17"/>
-    <mergeCell ref="O6:P28"/>
-    <mergeCell ref="A20:B28"/>
-    <mergeCell ref="C20:D28"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A6:B14"/>
+    <mergeCell ref="C6:D14"/>
+    <mergeCell ref="E6:F14"/>
+    <mergeCell ref="E15:F26"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:P28">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
@@ -6194,8 +6315,8 @@
   <conditionalFormatting sqref="K6:L28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -6206,24 +6327,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52CF1C1-0969-49DC-89D9-A5DED2663B92}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -6236,7 +6357,7 @@
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -6249,7 +6370,7 @@
       <c r="K3" s="45"/>
       <c r="L3" s="45"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -6262,7 +6383,7 @@
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
@@ -6275,7 +6396,7 @@
       <c r="K5" s="45"/>
       <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -6288,7 +6409,7 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
@@ -6296,71 +6417,71 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="20">
         <v>1336.5</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="20">
         <v>257.5</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="20">
         <v>1079</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="20">
         <v>121.5</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="20">
         <v>31.5</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="20">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="20">
         <v>89.75</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="20">
         <v>89.75</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>14</v>
       </c>
@@ -6375,4 +6496,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<templater-settings>
+  <search-setup advanced="0" values="0" only-active="1">
+    <category show="0"/>
+    <type show="0"/>
+    <example show="0"/>
+    <description show="0"/>
+  </search-setup>
+  <aliases>
+    <prefix alias="project">department.team.project:sort(name)</prefix>
+  </aliases>
+  <schema/>
+</templater-settings>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7272C953-8867-4D77-8379-B31DF94FD025}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/Advanced/DepartmentReport/result.xlsx
+++ b/Advanced/DepartmentReport/result.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TemplaterExamples\Advanced\DepartmentReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{209B8024-5D7F-475D-8999-A20D04A36078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="750" windowWidth="24705" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29550" yWindow="750" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
     <sheet name="DEV" sheetId="3" r:id="rId2"/>
-    <sheet name="SALE" sheetId="5" r:id="rId3"/>
-    <sheet name="QA" sheetId="6" r:id="rId4"/>
+    <sheet name="SALE" sheetId="6" r:id="rId3"/>
+    <sheet name="QA" sheetId="7" r:id="rId4"/>
     <sheet name="Summary" sheetId="1" r:id="rId5"/>
+    <sheet name="Late tasks" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="epic">DEV!$C$6:$N$13</definedName>
     <definedName name="team">DEV!$A$4:$P$19</definedName>
-    <definedName name="temp_range_0">SALE!$C$6:$N$11</definedName>
-    <definedName name="temp_range_1">SALE!$A$4:$P$15</definedName>
+    <definedName name="temp_range_0">SALE!$A$4:$P$15</definedName>
+    <definedName name="temp_range_1">SALE!$C$6:$N$11</definedName>
     <definedName name="temp_range_10">DEV!$C$35:$N$37</definedName>
     <definedName name="temp_range_11">DEV!$C$38:$N$39</definedName>
     <definedName name="temp_range_12">SALE!$A$16:$P$23</definedName>
@@ -32,8 +27,8 @@
     <definedName name="temp_range_15">SALE!$C$21:$N$21</definedName>
     <definedName name="temp_range_16">QA!$C$15:$N$26</definedName>
     <definedName name="temp_range_17">QA!$C$27:$N$28</definedName>
-    <definedName name="temp_range_2">QA!$C$6:$N$14</definedName>
-    <definedName name="temp_range_3">QA!$A$4:$P$30</definedName>
+    <definedName name="temp_range_2">QA!$A$4:$P$30</definedName>
+    <definedName name="temp_range_3">QA!$C$6:$N$14</definedName>
     <definedName name="temp_range_4">DEV!$A$20:$P$41</definedName>
     <definedName name="temp_range_5">DEV!$C$22:$N$23</definedName>
     <definedName name="temp_range_6">DEV!$C$14:$N$17</definedName>
@@ -41,9 +36,9 @@
     <definedName name="temp_range_8">DEV!$C$24:$N$24</definedName>
     <definedName name="temp_range_9">DEV!$C$25:$N$26</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -57,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="120">
   <si>
     <t>Head</t>
   </si>
@@ -105,6 +100,9 @@
   </si>
   <si>
     <t>Sum of Days</t>
+  </si>
+  <si>
+    <t>Estimated</t>
   </si>
   <si>
     <t>Sweat shop ltd.</t>
@@ -419,7 +417,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00&quot; md&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -760,6 +758,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -799,36 +827,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,13 +835,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -942,6 +933,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -956,7 +954,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -974,6 +972,7 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -983,13 +982,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -1002,6 +994,7 @@
       <c:rotX val="15"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1091,7 +1084,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78CB-4884-A96F-564D6D8FEEA6}"/>
             </c:ext>
@@ -1110,6 +1103,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1144,7 +1138,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1160,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="44126.430890856478" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="65" xr:uid="{00000000-000A-0000-FFFF-FFFF0E000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="44556.471700578702" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="65">
   <cacheSource type="worksheet">
     <worksheetSource name="total[#All]"/>
   </cacheSource>
@@ -1211,7 +1205,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="65">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="65">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1736,7 +1730,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B8:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1824,15 +1818,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="total" displayName="total" ref="A1:F66" totalsRowShown="0">
-  <autoFilter ref="A1:F66" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="total" displayName="total" ref="A1:F66" totalsRowShown="0">
+  <autoFilter ref="A1:F66"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Department"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Team"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Project"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Epic"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Task"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Days"/>
+    <tableColumn id="1" name="Department"/>
+    <tableColumn id="2" name="Team"/>
+    <tableColumn id="3" name="Project"/>
+    <tableColumn id="4" name="Epic"/>
+    <tableColumn id="5" name="Task"/>
+    <tableColumn id="6" name="Days"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Department"/>
+    <tableColumn id="2" name="Team"/>
+    <tableColumn id="3" name="Task"/>
+    <tableColumn id="4" name="Estimated"/>
+    <tableColumn id="5" name="Spent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1881,7 +1889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1914,26 +1922,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1966,23 +1957,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2158,11 +2132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F5A3AF-670B-4DBF-B949-49FDFE80F314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,19 +2169,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -2215,19 +2189,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>3.5</v>
@@ -2235,19 +2209,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -2255,19 +2229,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>0.5</v>
@@ -2275,19 +2249,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>35</v>
@@ -2295,19 +2269,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>120</v>
@@ -2315,19 +2289,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2335,19 +2309,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -2355,19 +2329,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -2375,19 +2349,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -2395,19 +2369,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2415,19 +2389,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -2435,19 +2409,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>4.5</v>
@@ -2455,19 +2429,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2475,19 +2449,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -2495,19 +2469,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2515,19 +2489,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -2535,19 +2509,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -2555,19 +2529,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20">
         <v>80</v>
@@ -2575,19 +2549,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21">
         <v>300</v>
@@ -2595,19 +2569,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -2615,19 +2589,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>20</v>
@@ -2635,19 +2609,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -2655,19 +2629,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25">
         <v>300</v>
@@ -2675,19 +2649,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -2695,19 +2669,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>4.5</v>
@@ -2715,19 +2689,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>60</v>
@@ -2735,19 +2709,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>30</v>
@@ -2755,19 +2729,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30">
         <v>110</v>
@@ -2775,19 +2749,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31">
         <v>80</v>
@@ -2795,19 +2769,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -2815,19 +2789,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -2835,19 +2809,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -2855,19 +2829,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2875,19 +2849,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36">
         <v>1.5</v>
@@ -2895,19 +2869,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -2915,19 +2889,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2935,19 +2909,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -2955,19 +2929,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -2975,19 +2949,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -2995,19 +2969,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42">
         <v>50</v>
@@ -3015,19 +2989,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -3035,19 +3009,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F44">
         <v>0.5</v>
@@ -3055,19 +3029,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F45">
         <v>1.5</v>
@@ -3075,19 +3049,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3095,19 +3069,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3115,19 +3089,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F48">
         <v>1.5</v>
@@ -3135,19 +3109,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -3155,19 +3129,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -3175,19 +3149,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3195,19 +3169,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -3215,19 +3189,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3235,19 +3209,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F54">
         <v>1.5</v>
@@ -3255,19 +3229,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F55">
         <v>7</v>
@@ -3275,19 +3249,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -3295,19 +3269,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F57">
         <v>50</v>
@@ -3315,19 +3289,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -3335,19 +3309,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3355,19 +3329,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F60">
         <v>0.25</v>
@@ -3375,19 +3349,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3395,19 +3369,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -3415,19 +3389,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3435,19 +3409,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F64">
         <v>0.5</v>
@@ -3455,19 +3429,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3475,19 +3449,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -3502,11 +3476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB80E825-2D31-499E-891E-3C3A144F34FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,47 +3505,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="A1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="ALZ1" s="2"/>
     </row>
     <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
       <c r="ALZ2" s="4"/>
     </row>
     <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3593,369 +3567,369 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="A4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="29"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44">
         <f>SUM(K6:K13)</f>
         <v>234.5</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38">
+      <c r="F6" s="44"/>
+      <c r="G6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25">
         <v>2</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="42">
+      <c r="J6" s="26"/>
+      <c r="K6" s="29">
         <v>0.5</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44">
+      <c r="L6" s="30"/>
+      <c r="M6" s="31">
         <f>SUM(K6:K13)/SUM(I6:I13)</f>
         <v>1.83203125</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44">
+      <c r="N6" s="31"/>
+      <c r="O6" s="31">
         <f>SUM(K6:K17)/SUM(I6:I17)</f>
         <v>1.7052980132450331</v>
       </c>
-      <c r="P6" s="44"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25">
         <v>7</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="42">
+      <c r="J7" s="26"/>
+      <c r="K7" s="29">
         <v>3.5</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25">
         <v>12</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="42">
+      <c r="J8" s="26"/>
+      <c r="K8" s="29">
         <v>15</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25">
         <v>1</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="42">
+      <c r="J9" s="26"/>
+      <c r="K9" s="29">
         <v>0.5</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
         <v>20</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="42">
+      <c r="J10" s="26"/>
+      <c r="K10" s="29">
         <v>35</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25">
         <v>70</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="42">
+      <c r="J11" s="26"/>
+      <c r="K11" s="29">
         <v>120</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25">
         <v>6</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="42">
+      <c r="J12" s="26"/>
+      <c r="K12" s="29">
         <v>0</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25">
         <v>10</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="42">
+      <c r="J13" s="26"/>
+      <c r="K13" s="29">
         <v>60</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44">
         <f>SUM(K14:K17)</f>
         <v>23</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38">
+      <c r="F14" s="44"/>
+      <c r="G14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25">
         <v>6</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="42">
+      <c r="J14" s="26"/>
+      <c r="K14" s="29">
         <v>6</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44">
+      <c r="L14" s="30"/>
+      <c r="M14" s="31">
         <f>SUM(K14:K17)/SUM(I14:I17)</f>
         <v>1</v>
       </c>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25">
         <v>10</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="42">
+      <c r="J15" s="26"/>
+      <c r="K15" s="29">
         <v>12</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25">
         <v>2</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="42">
+      <c r="J16" s="26"/>
+      <c r="K16" s="29">
         <v>1</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25">
         <v>5</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="42">
+      <c r="J17" s="26"/>
+      <c r="K17" s="29">
         <v>4</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
@@ -3964,11 +3938,11 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="22">
+      <c r="E18" s="32">
         <f>SUM(E6:E17)</f>
         <v>257.5</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -3980,547 +3954,547 @@
       <c r="P18" s="15"/>
     </row>
     <row r="20" spans="1:16" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="A20" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
     </row>
     <row r="21" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="40" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="27" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28" t="s">
+      <c r="J21" s="37"/>
+      <c r="K21" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28" t="s">
+      <c r="L21" s="38"/>
+      <c r="M21" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29" t="s">
+      <c r="N21" s="38"/>
+      <c r="O21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="29"/>
+      <c r="P21" s="39"/>
     </row>
     <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
+      <c r="A22" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44">
         <f>SUM(K22:K23)</f>
         <v>64.5</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38">
+      <c r="F22" s="44"/>
+      <c r="G22" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25">
         <v>40</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="42">
+      <c r="J22" s="26"/>
+      <c r="K22" s="29">
         <v>4.5</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44">
+      <c r="L22" s="30"/>
+      <c r="M22" s="31">
         <f>SUM(K22:K23)/SUM(I22:I23)</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44">
+      <c r="N22" s="31"/>
+      <c r="O22" s="31">
         <f>SUM(K22:K39)/SUM(I22:I39)</f>
         <v>1.1227887617065557</v>
       </c>
-      <c r="P22" s="44"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38">
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25">
         <v>50</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="42">
+      <c r="J23" s="26"/>
+      <c r="K23" s="29">
         <v>60</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44">
         <f>SUM(K24)</f>
         <v>30</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38">
+      <c r="F24" s="44"/>
+      <c r="G24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25">
         <v>25</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="42">
+      <c r="J24" s="26"/>
+      <c r="K24" s="29">
         <v>30</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44">
+      <c r="L24" s="30"/>
+      <c r="M24" s="31">
         <f>SUM(K24)/SUM(I24)</f>
         <v>1.2</v>
       </c>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44">
         <f>SUM(K25:K26)</f>
         <v>190</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38">
+      <c r="F25" s="44"/>
+      <c r="G25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25">
         <v>100</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="42">
+      <c r="J25" s="26"/>
+      <c r="K25" s="29">
         <v>110</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44">
+      <c r="L25" s="30"/>
+      <c r="M25" s="31">
         <f>SUM(K25:K26)/SUM(I25:I26)</f>
         <v>0.95</v>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25">
         <v>100</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="42">
+      <c r="J26" s="26"/>
+      <c r="K26" s="29">
         <v>80</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44">
         <f>SUM(K27:K34)</f>
         <v>414.5</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38">
+      <c r="F27" s="44"/>
+      <c r="G27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25">
         <v>4</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="42">
+      <c r="J27" s="26"/>
+      <c r="K27" s="29">
         <v>4.5</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44">
+      <c r="L27" s="30"/>
+      <c r="M27" s="31">
         <f>SUM(K27:K34)/SUM(I27:I34)</f>
         <v>2.0621890547263684</v>
       </c>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25">
         <v>4</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="42">
+      <c r="J28" s="26"/>
+      <c r="K28" s="29">
         <v>4</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38">
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25">
         <v>2</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="42">
+      <c r="J29" s="26"/>
+      <c r="K29" s="29">
         <v>2</v>
       </c>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
     </row>
     <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25">
         <v>1</v>
       </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="42">
+      <c r="J30" s="26"/>
+      <c r="K30" s="29">
         <v>1</v>
       </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25">
         <v>10</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="42">
+      <c r="J31" s="26"/>
+      <c r="K31" s="29">
         <v>8</v>
       </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25">
         <v>20</v>
       </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="42">
+      <c r="J32" s="26"/>
+      <c r="K32" s="29">
         <v>15</v>
       </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="38">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25">
         <v>60</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="42">
+      <c r="J33" s="26"/>
+      <c r="K33" s="29">
         <v>80</v>
       </c>
-      <c r="L33" s="43"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
     </row>
     <row r="34" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25">
         <v>100</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="42">
+      <c r="J34" s="26"/>
+      <c r="K34" s="29">
         <v>300</v>
       </c>
-      <c r="L34" s="43"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34">
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44">
         <f>SUM(K35:K37)</f>
         <v>60</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="38">
+      <c r="F35" s="44"/>
+      <c r="G35" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25">
         <v>25</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="42">
+      <c r="J35" s="26"/>
+      <c r="K35" s="29">
         <v>30</v>
       </c>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44">
+      <c r="L35" s="30"/>
+      <c r="M35" s="31">
         <f>SUM(K35:K37)/SUM(I35:I37)</f>
         <v>0.41379310344827586</v>
       </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
     </row>
     <row r="36" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25">
         <v>100</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="42">
+      <c r="J36" s="26"/>
+      <c r="K36" s="29">
         <v>20</v>
       </c>
-      <c r="L36" s="43"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
     </row>
     <row r="37" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25">
         <v>20</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="42">
+      <c r="J37" s="26"/>
+      <c r="K37" s="29">
         <v>10</v>
       </c>
-      <c r="L37" s="43"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
     </row>
     <row r="38" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44">
         <f>SUM(K38:K39)</f>
         <v>320</v>
       </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38">
+      <c r="F38" s="44"/>
+      <c r="G38" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25">
         <v>200</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="42">
+      <c r="J38" s="26"/>
+      <c r="K38" s="29">
         <v>300</v>
       </c>
-      <c r="L38" s="43"/>
-      <c r="M38" s="44">
+      <c r="L38" s="30"/>
+      <c r="M38" s="31">
         <f>SUM(K38:K39)/SUM(I38:I39)</f>
         <v>1.0666666666666667</v>
       </c>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
     </row>
     <row r="39" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25">
         <v>100</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="42">
+      <c r="J39" s="26"/>
+      <c r="K39" s="29">
         <v>20</v>
       </c>
-      <c r="L39" s="43"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
     </row>
     <row r="40" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
@@ -4529,11 +4503,11 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="22">
+      <c r="E40" s="32">
         <f>SUM(E22:E39)</f>
         <v>1079</v>
       </c>
-      <c r="F40" s="22"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -4549,12 +4523,12 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K36:L36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K36:L36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="K31:L31"/>
@@ -4573,99 +4547,75 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C35:D37"/>
     <mergeCell ref="E35:F37"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="M35:N37"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:F39"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="M38:N39"/>
-    <mergeCell ref="K39:L39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C25:D26"/>
     <mergeCell ref="M25:N26"/>
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G23:H23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="O22:P39"/>
     <mergeCell ref="A22:B26"/>
     <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="O22:P39"/>
     <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A27:B39"/>
+    <mergeCell ref="C27:D34"/>
+    <mergeCell ref="E27:F34"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C27:D34"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F34"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A27:B39"/>
     <mergeCell ref="M27:N34"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C25:D26"/>
     <mergeCell ref="E25:F26"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="G20:P20"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N13"/>
-    <mergeCell ref="O6:P17"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C14:D17"/>
-    <mergeCell ref="E14:F17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N17"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:P2"/>
@@ -4678,43 +4628,67 @@
     <mergeCell ref="A6:B17"/>
     <mergeCell ref="C6:D13"/>
     <mergeCell ref="E6:F13"/>
+    <mergeCell ref="C14:D17"/>
+    <mergeCell ref="E14:F17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N17"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N13"/>
+    <mergeCell ref="O6:P17"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:P17">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:P39">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22:P39">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="6" operator="between">
-      <formula>0</formula>
       <formula>1</formula>
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L17">
@@ -4741,12 +4715,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB222A3-BDA2-4939-831B-5D651E4690CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALZ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4770,47 +4742,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="A1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="ALZ1" s="2"/>
     </row>
     <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
       <c r="ALZ2" s="4"/>
     </row>
     <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4832,273 +4804,273 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="A4" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="29"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44">
         <f>SUM(K6:K11)</f>
         <v>26.5</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38">
+      <c r="F6" s="44"/>
+      <c r="G6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25">
         <v>6</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="42">
+      <c r="J6" s="26"/>
+      <c r="K6" s="29">
         <v>4</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44">
+      <c r="L6" s="30"/>
+      <c r="M6" s="31">
         <f>SUM(K6:K11)/SUM(I6:I11)</f>
         <v>1.1041666666666667</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44">
+      <c r="N6" s="31"/>
+      <c r="O6" s="31">
         <f>SUM(K6:K13)/SUM(I6:I13)</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="P6" s="44"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25">
         <v>3</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="42">
+      <c r="J7" s="26"/>
+      <c r="K7" s="29">
         <v>6</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25">
         <v>8</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="42">
+      <c r="J8" s="26"/>
+      <c r="K8" s="29">
         <v>10</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25">
         <v>1</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="42">
+      <c r="J9" s="26"/>
+      <c r="K9" s="29">
         <v>1</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
         <v>2</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="42">
+      <c r="J10" s="26"/>
+      <c r="K10" s="29">
         <v>1.5</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25">
         <v>4</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="42">
+      <c r="J11" s="26"/>
+      <c r="K11" s="29">
         <v>4</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44">
         <f>SUM(K12:K13)</f>
         <v>5</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38">
+      <c r="F12" s="44"/>
+      <c r="G12" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25">
         <v>1</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="42">
+      <c r="J12" s="26"/>
+      <c r="K12" s="29">
         <v>1</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44">
+      <c r="L12" s="30"/>
+      <c r="M12" s="31">
         <f>SUM(K12:K13)/SUM(I12:I13)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25">
         <v>2</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="42">
+      <c r="J13" s="26"/>
+      <c r="K13" s="29">
         <v>4</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:1014" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -5107,11 +5079,11 @@
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="22">
+      <c r="E14" s="32">
         <f>SUM(E6:E13)</f>
         <v>31.5</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -5123,179 +5095,179 @@
       <c r="P14" s="15"/>
     </row>
     <row r="16" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="A16" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="40" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="27" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28" t="s">
+      <c r="J17" s="37"/>
+      <c r="K17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28" t="s">
+      <c r="L17" s="38"/>
+      <c r="M17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29" t="s">
+      <c r="N17" s="38"/>
+      <c r="O17" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="29"/>
+      <c r="P17" s="39"/>
     </row>
     <row r="18" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34">
+      <c r="A18" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44">
         <f>SUM(K18:K20)</f>
         <v>80</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38">
+      <c r="F18" s="44"/>
+      <c r="G18" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25">
         <v>5</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="42">
+      <c r="J18" s="26"/>
+      <c r="K18" s="29">
         <v>10</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44">
+      <c r="L18" s="30"/>
+      <c r="M18" s="31">
         <f>SUM(K18:K20)/SUM(I18:I20)</f>
         <v>3.2</v>
       </c>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44">
+      <c r="N18" s="31"/>
+      <c r="O18" s="31">
         <f>SUM(K18:K21)/SUM(I18:I21)</f>
         <v>2</v>
       </c>
-      <c r="P18" s="44"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25">
         <v>10</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="42">
+      <c r="J19" s="26"/>
+      <c r="K19" s="29">
         <v>20</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25">
         <v>10</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="42">
+      <c r="J20" s="26"/>
+      <c r="K20" s="29">
         <v>50</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34">
+      <c r="A21" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44">
         <f>SUM(K21)</f>
         <v>10</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38">
+      <c r="F21" s="44"/>
+      <c r="G21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25">
         <v>20</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="42">
+      <c r="J21" s="26"/>
+      <c r="K21" s="29">
         <v>10</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44">
+      <c r="L21" s="30"/>
+      <c r="M21" s="31">
         <f>SUM(K21)/SUM(I21)</f>
         <v>0.5</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
@@ -5304,11 +5276,11 @@
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="22">
+      <c r="E22" s="32">
         <f>SUM(E18:E21)</f>
         <v>90</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -5321,68 +5293,52 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N20"/>
+    <mergeCell ref="O18:P21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M18:N20"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="O18:P21"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="A18:B20"/>
     <mergeCell ref="C18:D20"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="G16:P16"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N11"/>
-    <mergeCell ref="O6:P13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:P2"/>
@@ -5395,35 +5351,51 @@
     <mergeCell ref="A6:B13"/>
     <mergeCell ref="C6:D11"/>
     <mergeCell ref="E6:F11"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N11"/>
+    <mergeCell ref="O6:P13"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:P13">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:P21">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:P21">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="between">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
-      <formula>0</formula>
       <formula>1</formula>
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L13">
@@ -5450,11 +5422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED83467-B1F1-4A81-8AE5-6E58A32333D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALZ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5479,47 +5451,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="A1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="ALZ1" s="2"/>
     </row>
     <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
       <c r="ALZ2" s="4"/>
     </row>
     <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5541,643 +5513,643 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="A4" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="29"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44">
         <f>SUM(K6:K14)</f>
         <v>11.75</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38">
+      <c r="F6" s="44"/>
+      <c r="G6" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25">
         <v>2</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="42">
+      <c r="J6" s="26"/>
+      <c r="K6" s="29">
         <v>2</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44">
+      <c r="L6" s="30"/>
+      <c r="M6" s="31">
         <f>SUM(K6:K14)/SUM(I6:I14)</f>
         <v>0.94</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44">
+      <c r="N6" s="31"/>
+      <c r="O6" s="31">
         <f>SUM(K6:K28)/SUM(I6:I28)</f>
         <v>1.3496240601503759</v>
       </c>
-      <c r="P6" s="44"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25">
         <v>0.5</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="42">
+      <c r="J7" s="26"/>
+      <c r="K7" s="29">
         <v>1</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25">
         <v>0.5</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="42">
+      <c r="J8" s="26"/>
+      <c r="K8" s="29">
         <v>0.25</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25">
         <v>1</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="42">
+      <c r="J9" s="26"/>
+      <c r="K9" s="29">
         <v>1</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
         <v>2</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="42">
+      <c r="J10" s="26"/>
+      <c r="K10" s="29">
         <v>2</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25">
         <v>0.5</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="42">
+      <c r="J11" s="26"/>
+      <c r="K11" s="29">
         <v>1</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25">
         <v>1</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="42">
+      <c r="J12" s="26"/>
+      <c r="K12" s="29">
         <v>0.5</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25">
         <v>3</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="42">
+      <c r="J13" s="26"/>
+      <c r="K13" s="29">
         <v>1</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25">
         <v>2</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="42">
+      <c r="J14" s="26"/>
+      <c r="K14" s="29">
         <v>3</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44">
         <f>SUM(K15:K26)</f>
         <v>23</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38">
+      <c r="F15" s="44"/>
+      <c r="G15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25">
         <v>0.5</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="42">
+      <c r="J15" s="26"/>
+      <c r="K15" s="29">
         <v>0.5</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44">
+      <c r="L15" s="30"/>
+      <c r="M15" s="31">
         <f>SUM(K15:K26)/SUM(I15:I26)</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25">
         <v>1</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="42">
+      <c r="J16" s="26"/>
+      <c r="K16" s="29">
         <v>1.5</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25">
         <v>0.5</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="42">
+      <c r="J17" s="26"/>
+      <c r="K17" s="29">
         <v>1</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25">
         <v>2</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="42">
+      <c r="J18" s="26"/>
+      <c r="K18" s="29">
         <v>1</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25">
         <v>2</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="42">
+      <c r="J19" s="26"/>
+      <c r="K19" s="29">
         <v>1.5</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25">
         <v>2</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="42">
+      <c r="J20" s="26"/>
+      <c r="K20" s="29">
         <v>2</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25">
         <v>1</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="42">
+      <c r="J21" s="26"/>
+      <c r="K21" s="29">
         <v>3</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25">
         <v>3</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="42">
+      <c r="J22" s="26"/>
+      <c r="K22" s="29">
         <v>1</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38">
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25">
         <v>4</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="42">
+      <c r="J23" s="26"/>
+      <c r="K23" s="29">
         <v>2</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25">
         <v>1</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="42">
+      <c r="J24" s="26"/>
+      <c r="K24" s="29">
         <v>1</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25">
         <v>2</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="42">
+      <c r="J25" s="26"/>
+      <c r="K25" s="29">
         <v>1.5</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25">
         <v>5</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="42">
+      <c r="J26" s="26"/>
+      <c r="K26" s="29">
         <v>7</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44">
         <f>SUM(K27:K28)</f>
         <v>55</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38">
+      <c r="F27" s="44"/>
+      <c r="G27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25">
         <v>10</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="42">
+      <c r="J27" s="26"/>
+      <c r="K27" s="29">
         <v>5</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44">
+      <c r="L27" s="30"/>
+      <c r="M27" s="31">
         <f>SUM(K27:K28)/SUM(I27:I28)</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25">
         <v>20</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="42">
+      <c r="J28" s="26"/>
+      <c r="K28" s="29">
         <v>50</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
@@ -6186,11 +6158,11 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="22">
+      <c r="E29" s="32">
         <f>SUM(E6:E28)</f>
         <v>89.75</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -6203,85 +6175,69 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="K26:L26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="M27:N28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K16:L16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
     <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I27:J27"/>
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:F28"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N14"/>
-    <mergeCell ref="O6:P28"/>
-    <mergeCell ref="M15:N26"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A15:B28"/>
-    <mergeCell ref="C15:D26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:P2"/>
@@ -6294,22 +6250,38 @@
     <mergeCell ref="A6:B14"/>
     <mergeCell ref="C6:D14"/>
     <mergeCell ref="E6:F14"/>
+    <mergeCell ref="A15:B28"/>
+    <mergeCell ref="C15:D26"/>
     <mergeCell ref="E15:F26"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N14"/>
+    <mergeCell ref="O6:P28"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N26"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:P28">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
       <formula>1</formula>
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
-      <formula>0</formula>
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L28">
@@ -6327,16 +6299,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52CF1C1-0969-49DC-89D9-A5DED2663B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9.140625" customWidth="1"/>
@@ -6344,7 +6316,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -6419,7 +6391,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="20">
         <v>1336.5</v>
@@ -6427,7 +6399,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="20">
         <v>257.5</v>
@@ -6435,7 +6407,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="20">
         <v>1079</v>
@@ -6443,7 +6415,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="20">
         <v>121.5</v>
@@ -6451,7 +6423,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="20">
         <v>31.5</v>
@@ -6459,7 +6431,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="20">
         <v>90</v>
@@ -6467,7 +6439,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="20">
         <v>89.75</v>
@@ -6475,7 +6447,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="20">
         <v>89.75</v>
@@ -6498,8 +6470,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<templater-settings>
+<templater-settings version="6.1.0.18635">
   <search-setup advanced="0" values="0" only-active="1">
     <category show="0"/>
     <type show="0"/>
@@ -6514,7 +6611,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7272C953-8867-4D77-8379-B31DF94FD025}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{871406FA-8BBA-4B82-8B84-4B3050A7D606}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>